--- a/試験設計書/試験項目書_試験結果画面.xlsx
+++ b/試験設計書/試験項目書_試験結果画面.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E08442AB-673B-42F1-BDBB-4799D049CEB3}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="単体試験項目書" sheetId="8" r:id="rId1"/>
     <sheet name="結合試験項目書" sheetId="10" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>単体試験項目書</t>
     <rPh sb="0" eb="2">
@@ -130,36 +129,11 @@
 ②pullQuestionAnswersメソッドを実行</t>
   </si>
   <si>
-    <t>①試験解答のレコードのリストを返す</t>
-  </si>
-  <si>
     <t>問題を取り出す</t>
   </si>
   <si>
     <t>①DBに存在する教科番号を設定
 ②find_questionメソッドを実行</t>
-  </si>
-  <si>
-    <t>①試験問題と選択肢のレコードのリストを返す</t>
-  </si>
-  <si>
-    <t>採点結果を返す</t>
-  </si>
-  <si>
-    <t>①DBに存在する教科番号とユーザIDを設定
-②試験回答を設定
-③checkAnswerメソッドを実行</t>
-  </si>
-  <si>
-    <t>①outResultFormの値が正しいか
-②outResultFormを返す</t>
-  </si>
-  <si>
-    <t>outResultFormの値
-・Resultクラスのリスト
-  ・問題文, 選択肢, 正解の選択肢, 合否
-・点数 (分子)
-・点数 (分母)</t>
   </si>
   <si>
     <t>試験結果をDBに登録</t>
@@ -168,9 +142,6 @@
     <t>①DBに存在するユーザIDと教科番号と
 ②試験の点数を設定
 ③uploadAtDBを実行</t>
-  </si>
-  <si>
-    <t>①DBに試験結果が登録されている</t>
   </si>
   <si>
     <t>試験結果画面を表示</t>
@@ -234,11 +205,144 @@
   <si>
     <t>①試験選択画面に遷移</t>
   </si>
+  <si>
+    <t>①教科番号に対応した試験解答のレコードのリストを返す</t>
+    <rPh sb="1" eb="3">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①教科番号に対応した試験問題と選択肢のレコードのリストを返す</t>
+    <rPh sb="1" eb="5">
+      <t>キョウカバンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①DBにユーザIDに対応した試験結果が登録されているか</t>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①DBに存在する教科番号とユーザIDを設定
+②試験回答を設定
+③checkAnswerメソッドを実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点結果を返す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点結果の例外
+・ユーザの解答は合っているのに×と表示
+・試験画面と問題数が違う
+・試験画面と問題の配置が違う
+・問題の正解値が間違っている</t>
+    <rPh sb="0" eb="4">
+      <t>サイテンケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>モンダイスウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t>シケンガメン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>セイカイチ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教科番号
+数学: 1</t>
+    <rPh sb="0" eb="4">
+      <t>キョウカバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教科番号
+数学: 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点結果の例外
+・問題が違う
+・問題の正解値が間違っている
+・採点が間違っている</t>
+    <rPh sb="9" eb="11">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サイテン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①outResultFormの値が正しいか
+②outResultFormを返す</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -688,7 +792,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -723,7 +827,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -931,14 +1035,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1015,43 +1119,47 @@
         <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="88.5" customHeight="1">
       <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="88.5" customHeight="1">
       <c r="A6" s="13">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="14" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="88.5" customHeight="1">
@@ -1059,13 +1167,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="14"/>
@@ -1075,13 +1183,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="14"/>
@@ -1113,7 +1221,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="15"/>
@@ -1153,7 +1261,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13">
       <formula1>"OK,NG,実施不可"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1163,14 +1271,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1186,7 +1294,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="9" t="s">
@@ -1239,29 +1347,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="88.5" customHeight="1">
       <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="14"/>
@@ -1271,13 +1381,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="14"/>
@@ -1367,7 +1477,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13">
       <formula1>"OK,NG,実施不可"</formula1>
     </dataValidation>
   </dataValidations>

--- a/試験設計書/試験項目書_試験結果画面.xlsx
+++ b/試験設計書/試験項目書_試験結果画面.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20386"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A013BAD-2FC0-4C12-86B9-DD7AC9F2537E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体試験項目書" sheetId="8" r:id="rId1"/>
     <sheet name="結合試験項目書" sheetId="10" r:id="rId2"/>
+    <sheet name="単体試験画像" sheetId="12" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>単体試験項目書</t>
     <rPh sb="0" eb="2">
@@ -318,32 +309,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>①outResultFormの値が正しいか
+②outResultFormを返す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>採点結果の例外
-・問題が違う
-・問題の正解値が間違っている
 ・採点が間違っている</t>
     <rPh sb="9" eb="11">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
       <t>サイテン</t>
     </rPh>
-    <rPh sb="34" eb="36">
+    <rPh sb="12" eb="14">
       <t>マチガ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①outResultFormの値が正しいか
-②outResultFormを返す</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,8 +381,17 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,8 +404,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -625,13 +640,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,6 +854,71 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -732,8 +945,90 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -747,6 +1042,572 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>331305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>415906</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>877957</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A591C1CE-88CF-45CA-96E8-2A3613CFBAA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13607143" y="2032198"/>
+          <a:ext cx="4430013" cy="546652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>データベース</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1315269</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1022035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B7EC90-EE4A-4DE2-AD0B-2E377362AD35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8935269" y="571500"/>
+          <a:ext cx="3351981" cy="5539606"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>153868</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>626522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>496978</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>612339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0737CAA-DF7C-4E8A-A58D-1867368A7735}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13692975" y="2327415"/>
+          <a:ext cx="4425253" cy="2244603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>157369</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>188125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>753106</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>626522</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9000055-92F0-4FF5-B477-0A35D9FC33E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="456726" y="555518"/>
+          <a:ext cx="7916380" cy="1771897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>157369</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>509465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>391105</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>685179</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EED481F-9D07-4FB7-9FB4-496F5F9E4E63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="456726" y="5598536"/>
+          <a:ext cx="7554379" cy="1305107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>157369</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1671249</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>899849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B58C6C-8859-4C8A-94EF-768EBFE83931}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="456726" y="3007179"/>
+          <a:ext cx="5487166" cy="2981741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>157369</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>509465</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7554379" cy="1305107"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7056B6A8-4C1F-4D5C-9E47-73DA5254D34D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="456726" y="5598536"/>
+          <a:ext cx="7554379" cy="1305107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>323848</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>240677</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>864407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F234AC0-3FAD-4992-A3E7-2497F31768ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20718554" y="7306235"/>
+          <a:ext cx="12265711" cy="4226172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1575735</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>864407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12C8569-B6FA-4433-8E64-1AB1AE6EDD85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="493059" y="8426824"/>
+          <a:ext cx="5363323" cy="3105583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>678846</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>704481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>197220</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>603628</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B04DAD6-EA33-46DE-A821-8F90F506DB9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8310052" y="6890128"/>
+          <a:ext cx="6129844" cy="5502088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88111</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>704481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="図 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BCD2F08-94DF-432D-9691-CF854E13C017}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14330787" y="6890128"/>
+          <a:ext cx="5638095" cy="6019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1035,17 +1896,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
@@ -1058,37 +1920,37 @@
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -1108,7 +1970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="88.5" customHeight="1">
+    <row r="4" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -1121,12 +1983,18 @@
       <c r="D4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F4" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="88.5" customHeight="1">
+      <c r="G4" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -1139,12 +2007,17 @@
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="F5" s="14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="88.5" customHeight="1">
+      <c r="G5" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -1155,14 +2028,14 @@
         <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="88.5" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -1178,7 +2051,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" ht="88.5" customHeight="1">
+    <row r="8" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -1194,7 +2067,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="88.5" customHeight="1">
+    <row r="9" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -1204,7 +2077,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="88.5" customHeight="1">
+    <row r="10" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -1214,7 +2087,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="88.5" customHeight="1">
+    <row r="11" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -1226,7 +2099,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="88.5" customHeight="1">
+    <row r="12" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -1236,7 +2109,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" ht="88.5" customHeight="1" thickBot="1">
+    <row r="13" spans="1:8" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>10</v>
       </c>
@@ -1246,42 +2119,48 @@
       <c r="E13" s="19"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6" ht="70.150000000000006" customHeight="1"/>
-    <row r="15" spans="1:6" ht="100.15" customHeight="1"/>
-    <row r="16" spans="1:6" ht="100.15" customHeight="1"/>
-    <row r="17" ht="100.15" customHeight="1"/>
-    <row r="18" ht="100.15" customHeight="1"/>
-    <row r="19" ht="100.15" customHeight="1"/>
-    <row r="20" ht="100.15" customHeight="1"/>
+    <row r="14" spans="1:8" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:8" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:8" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"OK,NG,実施不可"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G4:H4" location="単体試験画像!A4" display="画像" xr:uid="{45F6DE4D-0C32-4C1C-849B-15A48541FC75}"/>
+    <hyperlink ref="G5" location="単体試験画像!A8" display="画像" xr:uid="{03CA1024-68AE-4050-8701-C4D96F52DBD2}"/>
+  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:F6"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
@@ -1292,37 +2171,37 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -1342,7 +2221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="88.5" customHeight="1">
+    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -1359,8 +2238,9 @@
       <c r="F4" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="88.5" customHeight="1">
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -1376,7 +2256,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:6" ht="88.5" customHeight="1">
+    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -1392,7 +2272,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6" ht="88.5" customHeight="1">
+    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -1402,7 +2282,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" ht="88.5" customHeight="1">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -1412,7 +2292,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="88.5" customHeight="1">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -1422,7 +2302,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="88.5" customHeight="1">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -1432,7 +2312,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="88.5" customHeight="1">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -1442,7 +2322,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="88.5" customHeight="1">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -1452,7 +2332,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" ht="88.5" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>10</v>
       </c>
@@ -1462,13 +2342,13 @@
       <c r="E13" s="19"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6" ht="70.150000000000006" customHeight="1"/>
-    <row r="15" spans="1:6" ht="100.15" customHeight="1"/>
-    <row r="16" spans="1:6" ht="100.15" customHeight="1"/>
-    <row r="17" ht="100.15" customHeight="1"/>
-    <row r="18" ht="100.15" customHeight="1"/>
-    <row r="19" ht="100.15" customHeight="1"/>
-    <row r="20" ht="100.15" customHeight="1"/>
+    <row r="14" spans="1:7" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
@@ -1477,11 +2357,709 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"OK,NG,実施不可"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EA7ADC-EF5D-46A0-8747-1B6BC8D9EE62}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AI24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="33" style="1" customWidth="1"/>
+    <col min="7" max="29" width="9" style="1"/>
+    <col min="30" max="30" width="54.375" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:35" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+    </row>
+    <row r="4" spans="1:35" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="49">
+        <v>1</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+    </row>
+    <row r="5" spans="1:35" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="50"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+    </row>
+    <row r="6" spans="1:35" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="50"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+    </row>
+    <row r="7" spans="1:35" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="50"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+    </row>
+    <row r="8" spans="1:35" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="51"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+    </row>
+    <row r="9" spans="1:35" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="49">
+        <v>2</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="54"/>
+    </row>
+    <row r="10" spans="1:35" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="50"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="57"/>
+    </row>
+    <row r="11" spans="1:35" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="50"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="57"/>
+    </row>
+    <row r="12" spans="1:35" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="50"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="57"/>
+    </row>
+    <row r="13" spans="1:35" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="50"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="57"/>
+    </row>
+    <row r="14" spans="1:35" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="50"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="58"/>
+      <c r="AI14" s="59"/>
+    </row>
+    <row r="15" spans="1:35" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="66">
+        <v>4</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="56"/>
+    </row>
+    <row r="16" spans="1:35" ht="100.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="60"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+    </row>
+    <row r="17" spans="1:35" ht="100.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="60"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+    </row>
+    <row r="18" spans="1:35" ht="100.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="60"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+    </row>
+    <row r="19" spans="1:35" ht="100.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="60"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+    </row>
+    <row r="20" spans="1:35" ht="100.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="67"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+    </row>
+    <row r="21" spans="1:35" ht="100.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="60">
+        <v>5</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:35" ht="100.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="60"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:35" ht="100.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="60"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:35" ht="100.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="61"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B9:AI14"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:AI20"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:E24" xr:uid="{FE7E8B1F-8EDE-4093-9CE8-8A2384BA96AC}">
+      <formula1>"OK,NG,実施不可"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C324F45A-EB76-4EE0-BA9E-3F22DE3FB07D}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/試験設計書/試験項目書_試験結果画面.xlsx
+++ b/試験設計書/試験項目書_試験結果画面.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20386"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A013BAD-2FC0-4C12-86B9-DD7AC9F2537E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="単体試験項目書" sheetId="8" r:id="rId1"/>
     <sheet name="結合試験項目書" sheetId="10" r:id="rId2"/>
     <sheet name="単体試験画像" sheetId="12" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId4"/>
+    <sheet name="結合試験画像" sheetId="13" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>単体試験項目書</t>
     <rPh sb="0" eb="2">
@@ -174,11 +174,6 @@
 ④採点ボタンを押す</t>
   </si>
   <si>
-    <t>①ユーザ名が画面に表示される
-②採点結果が画面に表示される
-③採点結果の表示が正しいか</t>
-  </si>
-  <si>
     <t>ログアウト</t>
   </si>
   <si>
@@ -237,62 +232,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>採点結果の例外
-・ユーザの解答は合っているのに×と表示
-・試験画面と問題数が違う
-・試験画面と問題の配置が違う
-・問題の正解値が間違っている</t>
-    <rPh sb="0" eb="4">
-      <t>サイテンケッカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>モンダイスウ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="42" eb="46">
-      <t>シケンガメン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="60" eb="63">
-      <t>セイカイチ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>マチガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>教科番号
 数学: 1</t>
     <rPh sb="0" eb="4">
@@ -338,12 +277,21 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①ユーザ名が画面に表示される
+②採点結果が画面に表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,7 +359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -703,17 +651,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -779,7 +716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,98 +801,116 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -963,68 +918,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1064,7 +963,7 @@
         <xdr:cNvPr id="12" name="テキスト ボックス 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A591C1CE-88CF-45CA-96E8-2A3613CFBAA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A591C1CE-88CF-45CA-96E8-2A3613CFBAA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1130,7 +1029,7 @@
         <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B7EC90-EE4A-4DE2-AD0B-2E377362AD35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78B7EC90-EE4A-4DE2-AD0B-2E377362AD35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,10 +1038,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1180,7 +1079,7 @@
         <xdr:cNvPr id="11" name="図 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0737CAA-DF7C-4E8A-A58D-1867368A7735}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0737CAA-DF7C-4E8A-A58D-1867368A7735}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1189,10 +1088,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1230,7 +1129,7 @@
         <xdr:cNvPr id="37" name="図 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9000055-92F0-4FF5-B477-0A35D9FC33E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9000055-92F0-4FF5-B477-0A35D9FC33E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1239,10 +1138,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1280,7 +1179,7 @@
         <xdr:cNvPr id="39" name="図 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EED481F-9D07-4FB7-9FB4-496F5F9E4E63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8EED481F-9D07-4FB7-9FB4-496F5F9E4E63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1289,10 +1188,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1330,7 +1229,7 @@
         <xdr:cNvPr id="43" name="図 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B58C6C-8859-4C8A-94EF-768EBFE83931}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43B58C6C-8859-4C8A-94EF-768EBFE83931}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,10 +1238,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1375,7 +1274,7 @@
         <xdr:cNvPr id="51" name="図 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7056B6A8-4C1F-4D5C-9E47-73DA5254D34D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7056B6A8-4C1F-4D5C-9E47-73DA5254D34D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1384,10 +1283,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1425,7 +1324,7 @@
         <xdr:cNvPr id="45" name="図 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F234AC0-3FAD-4992-A3E7-2497F31768ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F234AC0-3FAD-4992-A3E7-2497F31768ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1434,10 +1333,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1475,7 +1374,7 @@
         <xdr:cNvPr id="47" name="図 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12C8569-B6FA-4433-8E64-1AB1AE6EDD85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C12C8569-B6FA-4433-8E64-1AB1AE6EDD85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1484,10 +1383,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1525,7 +1424,7 @@
         <xdr:cNvPr id="53" name="図 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B04DAD6-EA33-46DE-A821-8F90F506DB9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B04DAD6-EA33-46DE-A821-8F90F506DB9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1534,10 +1433,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1575,7 +1474,7 @@
         <xdr:cNvPr id="57" name="図 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BCD2F08-94DF-432D-9691-CF854E13C017}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3BCD2F08-94DF-432D-9691-CF854E13C017}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1584,10 +1483,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1599,6 +1498,738 @@
         <a:xfrm>
           <a:off x="14330787" y="6890128"/>
           <a:ext cx="5638095" cy="6019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>862852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1762326</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>798379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12" descr="1-3-1.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="593912" y="14657293"/>
+          <a:ext cx="5449061" cy="3734321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>230523</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>603517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>497082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>54740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13" descr="1-3-2.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13106082" y="14397958"/>
+          <a:ext cx="3000794" cy="4516282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2031468</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>678218</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>879423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14" descr="1-3-4.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6304111" y="14080191"/>
+          <a:ext cx="5872143" cy="5740375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1224642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>434490</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1219728</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15" descr="1-3-3.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17076964" y="15103928"/>
+          <a:ext cx="3019847" cy="3791479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>564154</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>473528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>500743</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1038363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78B7EC90-EE4A-4DE2-AD0B-2E377362AD35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21587190" y="14352814"/>
+          <a:ext cx="3338374" cy="5626692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>585106</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21567321" y="14028964"/>
+          <a:ext cx="3252107" cy="435428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>No.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>の解答テーブル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>258537</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>796019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>628879</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>648890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30" descr="1-4-1.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13797644" y="21887090"/>
+          <a:ext cx="6493556" cy="3649264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>870857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1988044</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1187384</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31" descr="1-3-1.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="816428" y="21077464"/>
+          <a:ext cx="5444259" cy="3731920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2517322</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>489858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>308317</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>648377</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32" descr="1-4-2.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6789965" y="20696465"/>
+          <a:ext cx="5696745" cy="4839376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>272140</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>853911</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>496774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33" descr="1-4-5.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21295176" y="24574500"/>
+          <a:ext cx="5344271" cy="809738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>329046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1296222</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>214185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22" descr="2-1-1.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="346363" y="900546"/>
+          <a:ext cx="5227450" cy="4387866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>740353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>617908</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19579</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23" descr="2-1-2.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="1335666"/>
+          <a:ext cx="12976596" cy="3755976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>270228</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>904318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24" descr="2-1-3.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19881273" y="744682"/>
+          <a:ext cx="10609182" cy="5233863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>221673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>109976</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>616817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25" descr="2-1-4.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30670499" y="831273"/>
+          <a:ext cx="11197077" cy="4967144"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>420728</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>595358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26" descr="1-3-5.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42595800" y="952500"/>
+          <a:ext cx="9183728" cy="4824458"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>595313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>344531</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>757886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27" descr="2-2-1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="6786563"/>
+          <a:ext cx="11679281" cy="4639323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>547688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1225752</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>105495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28" descr="2-2-2.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14454187" y="6738938"/>
+          <a:ext cx="12822440" cy="5153745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>928688</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>881062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>87467</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>62503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29" descr="2-2-3.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238251" y="14668500"/>
+          <a:ext cx="12469966" cy="4229691"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1896,18 +2527,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
@@ -1920,37 +2551,37 @@
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="46"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="44"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -1970,7 +2601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="88.5" customHeight="1">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -1981,20 +2612,20 @@
         <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="48"/>
-    </row>
-    <row r="5" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="1:8" ht="88.5" customHeight="1">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -2005,37 +2636,42 @@
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:8" ht="88.5" customHeight="1">
       <c r="A6" s="13">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="F6" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="88.5" customHeight="1">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -2046,12 +2682,17 @@
         <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G7" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="88.5" customHeight="1">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -2064,10 +2705,15 @@
       <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G8" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="88.5" customHeight="1">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -2077,7 +2723,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="88.5" customHeight="1">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -2087,7 +2733,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="88.5" customHeight="1">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -2099,7 +2745,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="88.5" customHeight="1">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -2109,7 +2755,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="88.5" customHeight="1" thickBot="1">
       <c r="A13" s="16">
         <v>10</v>
       </c>
@@ -2119,13 +2765,13 @@
       <c r="E13" s="19"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:8" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:8" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:8" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:8" ht="70.150000000000006" customHeight="1"/>
+    <row r="15" spans="1:8" ht="100.15" customHeight="1"/>
+    <row r="16" spans="1:8" ht="100.15" customHeight="1"/>
+    <row r="17" ht="100.15" customHeight="1"/>
+    <row r="18" ht="100.15" customHeight="1"/>
+    <row r="19" ht="100.15" customHeight="1"/>
+    <row r="20" ht="100.15" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B2"/>
@@ -2135,13 +2781,16 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13">
       <formula1>"OK,NG,実施不可"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G4:H4" location="単体試験画像!A4" display="画像" xr:uid="{45F6DE4D-0C32-4C1C-849B-15A48541FC75}"/>
-    <hyperlink ref="G5" location="単体試験画像!A8" display="画像" xr:uid="{03CA1024-68AE-4050-8701-C4D96F52DBD2}"/>
+    <hyperlink ref="G4:H4" location="単体試験画像!A4" display="画像"/>
+    <hyperlink ref="G5" location="単体試験画像!A8" display="画像"/>
+    <hyperlink ref="G6" location="単体試験画像!A15" display="画像"/>
+    <hyperlink ref="G7" location="単体試験画像!A21" display="画像"/>
+    <hyperlink ref="G8" location="結合試験画像!A4" display="画像"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2149,18 +2798,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
@@ -2171,37 +2820,37 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="46"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="44"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -2221,7 +2870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="88.5" customHeight="1">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -2232,47 +2881,59 @@
         <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="88.5" customHeight="1">
       <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="88.5" customHeight="1">
       <c r="A6" s="13">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="88.5" customHeight="1">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -2282,7 +2943,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -2292,7 +2953,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -2302,7 +2963,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -2312,7 +2973,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -2322,7 +2983,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -2332,7 +2993,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" thickBot="1">
       <c r="A13" s="16">
         <v>10</v>
       </c>
@@ -2342,13 +3003,13 @@
       <c r="E13" s="19"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:7" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:7" ht="70.150000000000006" customHeight="1"/>
+    <row r="15" spans="1:7" ht="100.15" customHeight="1"/>
+    <row r="16" spans="1:7" ht="100.15" customHeight="1"/>
+    <row r="17" ht="100.15" customHeight="1"/>
+    <row r="18" ht="100.15" customHeight="1"/>
+    <row r="19" ht="100.15" customHeight="1"/>
+    <row r="20" ht="100.15" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
@@ -2357,28 +3018,33 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13">
       <formula1>"OK,NG,実施不可"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G4" location="結合試験画像!A4" display="画像"/>
+    <hyperlink ref="G5" location="結合試験画像!A9" display="画像"/>
+    <hyperlink ref="G6" location="結合試験画像!A15" display="画像"/>
+  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EA7ADC-EF5D-46A0-8747-1B6BC8D9EE62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AI24"/>
+  <dimension ref="A1:AI26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="M24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
@@ -2391,657 +3057,842 @@
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:35" ht="15" customHeight="1">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="46"/>
-    </row>
-    <row r="2" spans="1:35" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:35" ht="14.45" customHeight="1">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="44"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-    </row>
-    <row r="4" spans="1:35" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="49">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+    </row>
+    <row r="4" spans="1:35" ht="88.5" customHeight="1">
+      <c r="A4" s="44">
         <v>1</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-    </row>
-    <row r="5" spans="1:35" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="50"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-    </row>
-    <row r="6" spans="1:35" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-    </row>
-    <row r="7" spans="1:35" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="50"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-    </row>
-    <row r="8" spans="1:35" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="51"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-    </row>
-    <row r="9" spans="1:35" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="49">
+      <c r="B4" s="30"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+    </row>
+    <row r="5" spans="1:35" ht="88.5" customHeight="1">
+      <c r="A5" s="45"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+    </row>
+    <row r="6" spans="1:35" ht="88.5" customHeight="1">
+      <c r="A6" s="45"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+    </row>
+    <row r="7" spans="1:35" ht="88.5" customHeight="1">
+      <c r="A7" s="45"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+    </row>
+    <row r="8" spans="1:35" ht="88.5" customHeight="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+    </row>
+    <row r="9" spans="1:35" ht="88.5" customHeight="1">
+      <c r="A9" s="44">
         <v>2</v>
       </c>
-      <c r="B9" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="53"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="54"/>
-    </row>
-    <row r="10" spans="1:35" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="50"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="56"/>
-      <c r="AI10" s="57"/>
-    </row>
-    <row r="11" spans="1:35" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="50"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="57"/>
-    </row>
-    <row r="12" spans="1:35" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="50"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="57"/>
-    </row>
-    <row r="13" spans="1:35" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="50"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="56"/>
-      <c r="AI13" s="57"/>
-    </row>
-    <row r="14" spans="1:35" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="58"/>
-      <c r="AI14" s="59"/>
-    </row>
-    <row r="15" spans="1:35" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="66">
+      <c r="B9" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="49"/>
+    </row>
+    <row r="10" spans="1:35" ht="88.5" customHeight="1">
+      <c r="A10" s="45"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="51"/>
+      <c r="AI10" s="52"/>
+    </row>
+    <row r="11" spans="1:35" ht="88.5" customHeight="1">
+      <c r="A11" s="45"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="51"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="51"/>
+      <c r="AH11" s="51"/>
+      <c r="AI11" s="52"/>
+    </row>
+    <row r="12" spans="1:35" ht="88.5" customHeight="1">
+      <c r="A12" s="45"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="52"/>
+    </row>
+    <row r="13" spans="1:35" ht="88.5" customHeight="1">
+      <c r="A13" s="45"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="52"/>
+    </row>
+    <row r="14" spans="1:35" ht="88.5" customHeight="1" thickBot="1">
+      <c r="A14" s="45"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="52"/>
+    </row>
+    <row r="15" spans="1:35" ht="70.150000000000006" customHeight="1">
+      <c r="A15" s="55">
+        <v>3</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="57"/>
+    </row>
+    <row r="16" spans="1:35" ht="100.15" customHeight="1">
+      <c r="A16" s="53"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="57"/>
+    </row>
+    <row r="17" spans="1:35" ht="100.15" customHeight="1">
+      <c r="A17" s="53"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="57"/>
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="57"/>
+    </row>
+    <row r="18" spans="1:35" ht="100.15" customHeight="1">
+      <c r="A18" s="53"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="57"/>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="57"/>
+    </row>
+    <row r="19" spans="1:35" ht="100.15" customHeight="1">
+      <c r="A19" s="53"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="57"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="57"/>
+    </row>
+    <row r="20" spans="1:35" ht="100.15" customHeight="1" thickBot="1">
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="57"/>
+    </row>
+    <row r="21" spans="1:35" ht="70.150000000000006" customHeight="1">
+      <c r="A21" s="55">
         <v>4</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="56"/>
-    </row>
-    <row r="16" spans="1:35" ht="100.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="60"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-    </row>
-    <row r="17" spans="1:35" ht="100.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="60"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="56"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-    </row>
-    <row r="18" spans="1:35" ht="100.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="60"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="56"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
-    </row>
-    <row r="19" spans="1:35" ht="100.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="60"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-    </row>
-    <row r="20" spans="1:35" ht="100.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-    </row>
-    <row r="21" spans="1:35" ht="100.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="60">
-        <v>5</v>
-      </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" spans="1:35" ht="100.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="60"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="1:35" ht="100.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="60"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="28"/>
-    </row>
-    <row r="24" spans="1:35" ht="100.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="61"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="29"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="57"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="57"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="57"/>
+    </row>
+    <row r="22" spans="1:35" ht="100.15" customHeight="1">
+      <c r="A22" s="53"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="57"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="57"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="57"/>
+      <c r="AG22" s="57"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="57"/>
+    </row>
+    <row r="23" spans="1:35" ht="100.15" customHeight="1">
+      <c r="A23" s="53"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="57"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="57"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="57"/>
+      <c r="AG23" s="57"/>
+      <c r="AH23" s="57"/>
+      <c r="AI23" s="57"/>
+    </row>
+    <row r="24" spans="1:35" ht="100.15" customHeight="1">
+      <c r="A24" s="53"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="57"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="57"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="57"/>
+      <c r="AG24" s="57"/>
+      <c r="AH24" s="57"/>
+      <c r="AI24" s="57"/>
+    </row>
+    <row r="25" spans="1:35" ht="100.15" customHeight="1">
+      <c r="A25" s="53"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="57"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="57"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="57"/>
+    </row>
+    <row r="26" spans="1:35" ht="100.15" customHeight="1" thickBot="1">
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:AI20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:AI26"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B9:AI14"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:AI20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:E24" xr:uid="{FE7E8B1F-8EDE-4093-9CE8-8A2384BA96AC}">
-      <formula1>"OK,NG,実施不可"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3049,7 +3900,868 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C324F45A-EB76-4EE0-BA9E-3F22DE3FB07D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BK20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="33" style="1" customWidth="1"/>
+    <col min="7" max="29" width="9" style="1"/>
+    <col min="30" max="30" width="54.375" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" ht="15" customHeight="1">
+      <c r="A1" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:63" ht="14.45" customHeight="1">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+    </row>
+    <row r="4" spans="1:63" ht="88.5" customHeight="1">
+      <c r="A4" s="44">
+        <v>1</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="57"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="57"/>
+      <c r="AX4" s="57"/>
+      <c r="AY4" s="57"/>
+      <c r="AZ4" s="57"/>
+      <c r="BA4" s="57"/>
+      <c r="BB4" s="57"/>
+      <c r="BC4" s="57"/>
+      <c r="BD4" s="57"/>
+      <c r="BE4" s="57"/>
+      <c r="BF4" s="57"/>
+      <c r="BG4" s="57"/>
+      <c r="BH4" s="57"/>
+      <c r="BI4" s="57"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="57"/>
+    </row>
+    <row r="5" spans="1:63" ht="88.5" customHeight="1">
+      <c r="A5" s="45"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="57"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="57"/>
+      <c r="AV5" s="57"/>
+      <c r="AW5" s="57"/>
+      <c r="AX5" s="57"/>
+      <c r="AY5" s="57"/>
+      <c r="AZ5" s="57"/>
+      <c r="BA5" s="57"/>
+      <c r="BB5" s="57"/>
+      <c r="BC5" s="57"/>
+      <c r="BD5" s="57"/>
+      <c r="BE5" s="57"/>
+      <c r="BF5" s="57"/>
+      <c r="BG5" s="57"/>
+      <c r="BH5" s="57"/>
+      <c r="BI5" s="57"/>
+      <c r="BJ5" s="57"/>
+      <c r="BK5" s="57"/>
+    </row>
+    <row r="6" spans="1:63" ht="88.5" customHeight="1">
+      <c r="A6" s="45"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="57"/>
+      <c r="AJ6" s="57"/>
+      <c r="AK6" s="57"/>
+      <c r="AL6" s="57"/>
+      <c r="AM6" s="57"/>
+      <c r="AN6" s="57"/>
+      <c r="AO6" s="57"/>
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="57"/>
+      <c r="AT6" s="57"/>
+      <c r="AU6" s="57"/>
+      <c r="AV6" s="57"/>
+      <c r="AW6" s="57"/>
+      <c r="AX6" s="57"/>
+      <c r="AY6" s="57"/>
+      <c r="AZ6" s="57"/>
+      <c r="BA6" s="57"/>
+      <c r="BB6" s="57"/>
+      <c r="BC6" s="57"/>
+      <c r="BD6" s="57"/>
+      <c r="BE6" s="57"/>
+      <c r="BF6" s="57"/>
+      <c r="BG6" s="57"/>
+      <c r="BH6" s="57"/>
+      <c r="BI6" s="57"/>
+      <c r="BJ6" s="57"/>
+      <c r="BK6" s="57"/>
+    </row>
+    <row r="7" spans="1:63" ht="88.5" customHeight="1">
+      <c r="A7" s="45"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="57"/>
+      <c r="BA7" s="57"/>
+      <c r="BB7" s="57"/>
+      <c r="BC7" s="57"/>
+      <c r="BD7" s="57"/>
+      <c r="BE7" s="57"/>
+      <c r="BF7" s="57"/>
+      <c r="BG7" s="57"/>
+      <c r="BH7" s="57"/>
+      <c r="BI7" s="57"/>
+      <c r="BJ7" s="57"/>
+      <c r="BK7" s="57"/>
+    </row>
+    <row r="8" spans="1:63" ht="88.5" customHeight="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="57"/>
+      <c r="AL8" s="57"/>
+      <c r="AM8" s="57"/>
+      <c r="AN8" s="57"/>
+      <c r="AO8" s="57"/>
+      <c r="AP8" s="57"/>
+      <c r="AQ8" s="57"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="57"/>
+      <c r="AV8" s="57"/>
+      <c r="AW8" s="57"/>
+      <c r="AX8" s="57"/>
+      <c r="AY8" s="57"/>
+      <c r="AZ8" s="57"/>
+      <c r="BA8" s="57"/>
+      <c r="BB8" s="57"/>
+      <c r="BC8" s="57"/>
+      <c r="BD8" s="57"/>
+      <c r="BE8" s="57"/>
+      <c r="BF8" s="57"/>
+      <c r="BG8" s="57"/>
+      <c r="BH8" s="57"/>
+      <c r="BI8" s="57"/>
+      <c r="BJ8" s="57"/>
+      <c r="BK8" s="57"/>
+    </row>
+    <row r="9" spans="1:63" ht="88.5" customHeight="1">
+      <c r="A9" s="44">
+        <v>2</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="52"/>
+    </row>
+    <row r="10" spans="1:63" ht="88.5" customHeight="1">
+      <c r="A10" s="45"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="51"/>
+      <c r="AI10" s="52"/>
+    </row>
+    <row r="11" spans="1:63" ht="88.5" customHeight="1">
+      <c r="A11" s="45"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="51"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="51"/>
+      <c r="AH11" s="51"/>
+      <c r="AI11" s="52"/>
+    </row>
+    <row r="12" spans="1:63" ht="88.5" customHeight="1">
+      <c r="A12" s="45"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="52"/>
+    </row>
+    <row r="13" spans="1:63" ht="88.5" customHeight="1">
+      <c r="A13" s="45"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="52"/>
+    </row>
+    <row r="14" spans="1:63" ht="88.5" customHeight="1" thickBot="1">
+      <c r="A14" s="45"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="52"/>
+    </row>
+    <row r="15" spans="1:63" ht="70.150000000000006" customHeight="1">
+      <c r="A15" s="55">
+        <v>3</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="57"/>
+    </row>
+    <row r="16" spans="1:63" ht="100.15" customHeight="1">
+      <c r="A16" s="53"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="57"/>
+    </row>
+    <row r="17" spans="1:35" ht="100.15" customHeight="1">
+      <c r="A17" s="53"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="57"/>
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="57"/>
+    </row>
+    <row r="18" spans="1:35" ht="100.15" customHeight="1">
+      <c r="A18" s="53"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="57"/>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="57"/>
+    </row>
+    <row r="19" spans="1:35" ht="100.15" customHeight="1">
+      <c r="A19" s="53"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="57"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="57"/>
+    </row>
+    <row r="20" spans="1:35" ht="100.15" customHeight="1" thickBot="1">
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:AI20"/>
+    <mergeCell ref="B4:BK8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:AI14"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3057,7 +4769,7 @@
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
